--- a/output/pooling.xlsx
+++ b/output/pooling.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve">Samples</t>
   </si>
@@ -35,121 +35,169 @@
     <t xml:space="preserve">Actual Volume Needed</t>
   </si>
   <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use whole sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">597, 633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">601</t>
+  </si>
+  <si>
     <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t xml:space="preserve">Use whole sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
+    <t xml:space="preserve">619, 592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">P</t>
   </si>
   <si>
+    <t xml:space="preserve">623, 596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q</t>
+  </si>
+  <si>
     <t xml:space="preserve">R</t>
   </si>
   <si>
-    <t xml:space="preserve">H</t>
+    <t xml:space="preserve">621, 594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">594, 614</t>
   </si>
   <si>
     <t xml:space="preserve">U</t>
   </si>
   <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">Z</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
   </si>
 </sst>
 </file>
@@ -508,296 +556,296 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="n">
-        <v>619</v>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>6.8</v>
+        <v>239.3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0068</v>
+        <v>0.2393</v>
       </c>
       <c r="E2" t="n">
-        <v>0.136</v>
+        <v>4.786</v>
       </c>
       <c r="F2" t="n">
-        <v>285.29</v>
+        <v>8.11</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>592</v>
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>12.8</v>
+        <v>178.4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0128</v>
+        <v>0.1784</v>
       </c>
       <c r="E3" t="n">
-        <v>0.256</v>
+        <v>3.568</v>
       </c>
       <c r="F3" t="n">
-        <v>151.56</v>
+        <v>10.87</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n">
-        <v>600</v>
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>14.4</v>
+        <v>1075.5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0144</v>
+        <v>1.0755</v>
       </c>
       <c r="E4" t="n">
-        <v>0.288</v>
+        <v>21.51</v>
       </c>
       <c r="F4" t="n">
-        <v>134.72</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n">
-        <v>623</v>
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>21.1</v>
+        <v>535.3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0211</v>
+        <v>0.5353</v>
       </c>
       <c r="E5" t="n">
-        <v>0.422</v>
+        <v>10.706</v>
       </c>
       <c r="F5" t="n">
-        <v>91.94</v>
+        <v>3.62</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="n">
-        <v>621</v>
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>22.7</v>
+        <v>300.3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0227</v>
+        <v>0.3003</v>
       </c>
       <c r="E6" t="n">
-        <v>0.454</v>
+        <v>6.006</v>
       </c>
       <c r="F6" t="n">
-        <v>85.46</v>
+        <v>6.46</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="n">
-        <v>593</v>
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>23.3</v>
+        <v>97</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0233</v>
+        <v>0.097</v>
       </c>
       <c r="E7" t="n">
-        <v>0.466</v>
+        <v>1.94</v>
       </c>
       <c r="F7" t="n">
-        <v>83.26</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="n">
-        <v>594</v>
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>33.2</v>
+        <v>14.4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0332</v>
+        <v>0.0144</v>
       </c>
       <c r="E8" t="n">
-        <v>0.664</v>
+        <v>0.288</v>
       </c>
       <c r="F8" t="n">
-        <v>58.43</v>
+        <v>134.72</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="n">
-        <v>596</v>
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>34</v>
+        <v>23.3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.034</v>
+        <v>0.0233</v>
       </c>
       <c r="E9" t="n">
-        <v>0.68</v>
+        <v>0.466</v>
       </c>
       <c r="F9" t="n">
-        <v>57.06</v>
+        <v>83.26</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="n">
-        <v>594</v>
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>37.9</v>
+        <v>308.8</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0379</v>
+        <v>0.3088</v>
       </c>
       <c r="E10" t="n">
-        <v>0.758</v>
+        <v>6.176</v>
       </c>
       <c r="F10" t="n">
-        <v>51.19</v>
+        <v>6.28</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="n">
-        <v>598</v>
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>45.9</v>
+        <v>751.6</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0459</v>
+        <v>0.7516</v>
       </c>
       <c r="E11" t="n">
-        <v>0.918</v>
+        <v>15.032</v>
       </c>
       <c r="F11" t="n">
-        <v>42.27</v>
+        <v>2.58</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="n">
-        <v>628</v>
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
       </c>
       <c r="C12" t="n">
-        <v>97</v>
+        <v>553.1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.097</v>
+        <v>0.5531</v>
       </c>
       <c r="E12" t="n">
-        <v>1.94</v>
+        <v>11.062</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>3.51</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="n">
-        <v>594</v>
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>121.6</v>
+        <v>150.8</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1216</v>
+        <v>0.1508</v>
       </c>
       <c r="E13" t="n">
-        <v>2.432</v>
+        <v>3.016</v>
       </c>
       <c r="F13" t="n">
-        <v>15.95</v>
+        <v>12.86</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="n">
-        <v>614</v>
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
       </c>
       <c r="C14" t="n">
-        <v>135.8</v>
+        <v>430.7</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1358</v>
+        <v>0.4307</v>
       </c>
       <c r="E14" t="n">
-        <v>2.716</v>
+        <v>8.614</v>
       </c>
       <c r="F14" t="n">
-        <v>14.29</v>
+        <v>4.5</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -805,68 +853,68 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="n">
-        <v>594</v>
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
       </c>
       <c r="C15" t="n">
-        <v>150.8</v>
+        <v>19.6</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1508</v>
+        <v>0.0196</v>
       </c>
       <c r="E15" t="n">
-        <v>3.016</v>
+        <v>0.392</v>
       </c>
       <c r="F15" t="n">
-        <v>12.86</v>
+        <v>98.98</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="n">
-        <v>600</v>
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>161.8</v>
+        <v>272.1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1618</v>
+        <v>0.2721</v>
       </c>
       <c r="E16" t="n">
-        <v>3.236</v>
+        <v>5.442</v>
       </c>
       <c r="F16" t="n">
-        <v>11.99</v>
+        <v>7.13</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="n">
-        <v>604</v>
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
       </c>
       <c r="C17" t="n">
-        <v>178.4</v>
+        <v>55.1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1784</v>
+        <v>0.0551</v>
       </c>
       <c r="E17" t="n">
-        <v>3.568</v>
+        <v>1.102</v>
       </c>
       <c r="F17" t="n">
-        <v>10.87</v>
+        <v>35.21</v>
       </c>
       <c r="G17" t="s">
         <v>24</v>
@@ -874,347 +922,232 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="n">
-        <v>596</v>
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>214.7</v>
+        <v>45.9</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2147</v>
+        <v>0.0459</v>
       </c>
       <c r="E18" t="n">
-        <v>4.294</v>
+        <v>0.918</v>
       </c>
       <c r="F18" t="n">
-        <v>9.04</v>
+        <v>42.27</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="n">
-        <v>593</v>
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
       </c>
       <c r="C19" t="n">
-        <v>239.3</v>
+        <v>60.6</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2393</v>
+        <v>0.0606</v>
       </c>
       <c r="E19" t="n">
-        <v>4.786</v>
+        <v>1.212</v>
       </c>
       <c r="F19" t="n">
-        <v>8.11</v>
+        <v>32.01</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="n">
-        <v>597</v>
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
       </c>
       <c r="C20" t="n">
-        <v>269.8</v>
+        <v>458.4</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2698</v>
+        <v>0.4584</v>
       </c>
       <c r="E20" t="n">
-        <v>5.396</v>
+        <v>9.168</v>
       </c>
       <c r="F20" t="n">
-        <v>7.19</v>
+        <v>4.23</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="n">
-        <v>593</v>
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
       </c>
       <c r="C21" t="n">
-        <v>272.1</v>
+        <v>257.4</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2721</v>
+        <v>0.2574</v>
       </c>
       <c r="E21" t="n">
-        <v>5.442</v>
+        <v>5.148</v>
       </c>
       <c r="F21" t="n">
-        <v>7.13</v>
+        <v>7.54</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="n">
-        <v>633</v>
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
       </c>
       <c r="C22" t="n">
-        <v>283.3</v>
+        <v>33.2</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2833</v>
+        <v>0.0332</v>
       </c>
       <c r="E22" t="n">
-        <v>5.666</v>
+        <v>0.664</v>
       </c>
       <c r="F22" t="n">
-        <v>6.85</v>
+        <v>58.43</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="n">
-        <v>598</v>
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
       </c>
       <c r="C23" t="n">
-        <v>300.3</v>
+        <v>715.4</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3003</v>
+        <v>0.7154</v>
       </c>
       <c r="E23" t="n">
-        <v>6.006</v>
+        <v>14.308</v>
       </c>
       <c r="F23" t="n">
-        <v>6.46</v>
+        <v>2.71</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="n">
-        <v>596</v>
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
       </c>
       <c r="C24" t="n">
-        <v>303.7</v>
+        <v>214.7</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3037</v>
+        <v>0.2147</v>
       </c>
       <c r="E24" t="n">
-        <v>6.074</v>
+        <v>4.294</v>
       </c>
       <c r="F24" t="n">
-        <v>6.39</v>
+        <v>9.04</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" t="n">
-        <v>636</v>
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
       </c>
       <c r="C25" t="n">
-        <v>308.8</v>
+        <v>802</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3088</v>
+        <v>0.802</v>
       </c>
       <c r="E25" t="n">
-        <v>6.176</v>
+        <v>16.04</v>
       </c>
       <c r="F25" t="n">
-        <v>6.28</v>
+        <v>2.42</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" t="n">
-        <v>601</v>
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>430.7</v>
+        <v>303.7</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4307</v>
+        <v>0.3037</v>
       </c>
       <c r="E26" t="n">
-        <v>8.614</v>
+        <v>6.074</v>
       </c>
       <c r="F26" t="n">
-        <v>4.5</v>
+        <v>6.39</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" t="n">
-        <v>598</v>
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
       </c>
       <c r="C27" t="n">
-        <v>458.4</v>
+        <v>161.8</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4584</v>
+        <v>0.1618</v>
       </c>
       <c r="E27" t="n">
-        <v>9.168</v>
+        <v>3.236</v>
       </c>
       <c r="F27" t="n">
-        <v>4.23</v>
+        <v>11.99</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" t="n">
-        <v>616</v>
-      </c>
-      <c r="C28" t="n">
-        <v>535.3</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.5353</v>
-      </c>
-      <c r="E28" t="n">
-        <v>10.706</v>
-      </c>
-      <c r="F28" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="G28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" t="n">
-        <v>629</v>
-      </c>
-      <c r="C29" t="n">
-        <v>715.4</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.7154</v>
-      </c>
-      <c r="E29" t="n">
-        <v>14.308</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="G29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" t="n">
-        <v>597</v>
-      </c>
-      <c r="C30" t="n">
-        <v>751.6</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.7516</v>
-      </c>
-      <c r="E30" t="n">
-        <v>15.032</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="G30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" t="n">
-        <v>613</v>
-      </c>
-      <c r="C31" t="n">
-        <v>802</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.802</v>
-      </c>
-      <c r="E31" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="G31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" t="n">
-        <v>600</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1075.5</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1.0755</v>
-      </c>
-      <c r="E32" t="n">
-        <v>21.51</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G32" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
